--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4429,229 +4429,165 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
+        </is>
+      </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>$152.3B</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1.46M</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
+          <t>$159.9B</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
+          <t>$92.1B</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 20 2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t>3</t>
@@ -4661,30 +4597,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.225%</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
           <t>3</t>
@@ -4694,26 +4622,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYDEC</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>3</t>
@@ -4723,18 +4647,18 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E164" t="inlineStr"/>
@@ -4748,50 +4672,34 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Net Long-term TIC FlowsNOV</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
+          <t>7.09%</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
@@ -4802,18 +4710,18 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Foreign Bond InvestmentNOV</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -4827,18 +4735,18 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Overall Net Capital FlowsNOV</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="E168" t="inlineStr"/>
@@ -4852,57 +4760,93 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
+        </is>
+      </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>575.6</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexJAN/17</t>
+        </is>
+      </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CB Leading Index MoMDEC</t>
+        </is>
+      </c>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -4916,18 +4860,18 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.686%</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -4941,108 +4885,104 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsJAN/18</t>
+        </is>
+      </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>217K</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>1859K</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>33.3%</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr">
@@ -5054,18 +4994,18 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -5079,68 +5019,68 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="E182" t="inlineStr"/>
@@ -5154,18 +5094,18 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>4.210%</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
@@ -5179,18 +5119,18 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="E184" t="inlineStr"/>
@@ -5204,81 +5144,93 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-2.6M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
+        </is>
+      </c>
       <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.397M</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -5292,16 +5244,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>4.240%</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
@@ -5313,18 +5269,18 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E190" t="inlineStr"/>
@@ -5338,68 +5294,68 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>2.071%</t>
         </is>
       </c>
       <c r="E193" t="inlineStr"/>
@@ -5413,18 +5369,18 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="E194" t="inlineStr"/>
@@ -5438,197 +5394,221 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>-0.021M</t>
-        </is>
-      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>55.3</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>56.6</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>4.15M</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.0M</t>
+        </is>
+      </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>-3.0%</t>
+        </is>
+      </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>73.2</t>
+        </is>
+      </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>6.27%</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G202" t="inlineStr">
         <is>
           <t>3</t>
@@ -5638,22 +5618,30 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>7.04%</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="G203" t="inlineStr">
         <is>
           <t>3</t>
@@ -5663,22 +5651,30 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2.071%</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
+          <t>75.1</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>77.9</t>
+        </is>
+      </c>
       <c r="G204" t="inlineStr">
         <is>
           <t>3</t>
@@ -5688,22 +5684,30 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/22</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
           <t>3</t>
@@ -5713,451 +5717,128 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexJAN</t>
+        </is>
+      </c>
       <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
+      <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
+      <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 26 2025</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Sunday January 26 2025</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,10 +4897,14 @@
           <t>Industrial Production MoMDEC</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4930,10 +4934,14 @@
           <t>Capacity UtilizationDEC</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4963,10 +4971,14 @@
           <t>Industrial Production YoYDEC</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -4992,10 +5004,14 @@
           <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5025,10 +5041,14 @@
           <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E176" t="inlineStr"/>
@@ -5625,7 +5645,11 @@
           <t>217K</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
       <c r="F202" t="inlineStr">
         <is>
           <t>219K</t>
@@ -6578,56 +6602,102 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
+          <t>New Home SalesDEC</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr">
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr">
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5533,7 +5533,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G197" t="inlineStr">
         <is>
           <t>3</t>
@@ -6243,7 +6247,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -6272,7 +6276,7 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -6648,24 +6652,24 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr">
         <is>
           <t>2</t>
@@ -6676,26 +6680,51 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6677,56 +6677,98 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr">
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr">
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G245"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5074,7 +5074,11 @@
           <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>480</t>
@@ -5099,7 +5103,11 @@
           <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>584</t>
@@ -6520,7 +6528,11 @@
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
@@ -6541,7 +6553,11 @@
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
@@ -6719,54 +6735,96 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr">
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr">
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr">
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -5132,10 +5132,14 @@
           <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>$79B</t>
+        </is>
+      </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$159.1B</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5161,10 +5165,14 @@
           <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>$-15.8B</t>
+        </is>
+      </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$92B</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -5186,10 +5194,14 @@
           <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>$159.9B</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$201.8B</t>
         </is>
       </c>
       <c r="E181" t="inlineStr"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -6809,7 +6809,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -6809,7 +6809,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
